--- a/TBL102015.xlsx
+++ b/TBL102015.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="10 2015" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,556 +22,556 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="184">
   <si>
-    <t>O#</t>
-  </si>
-  <si>
-    <t>Jahr</t>
-  </si>
-  <si>
-    <t>Monat</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>D#</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Adresse</t>
-  </si>
-  <si>
-    <t>Adresse 2</t>
-  </si>
-  <si>
-    <t>Adresse 3</t>
-  </si>
-  <si>
-    <t>Adresse 4</t>
-  </si>
-  <si>
-    <t>Stadt</t>
-  </si>
-  <si>
-    <t>Staat</t>
-  </si>
-  <si>
-    <t>POSTLEITZAHL</t>
-  </si>
-  <si>
-    <t>D Monat</t>
-  </si>
-  <si>
-    <t> Area</t>
-  </si>
-  <si>
-    <t> Sponsor ID</t>
-  </si>
-  <si>
-    <t>D year</t>
-  </si>
-  <si>
-    <t>D mth</t>
-  </si>
-  <si>
-    <t>1st O year</t>
-  </si>
-  <si>
-    <t>1st O mth</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>  CCs</t>
-  </si>
-  <si>
-    <t>  SRP</t>
-  </si>
-  <si>
-    <t> WHS</t>
-  </si>
-  <si>
-    <t> NDP</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>DAGMAR WENDLAND                                   </t>
-  </si>
-  <si>
-    <t>M]NCHENER STR. 148                                </t>
-  </si>
-  <si>
-    <t>                                                  </t>
-  </si>
-  <si>
-    <t>BREMEN                        </t>
-  </si>
-  <si>
-    <t>DEU </t>
-  </si>
-  <si>
-    <t>DEU</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>MANUELA TONON                                     </t>
-  </si>
-  <si>
-    <t>MELANCHTHONSTR. 4                                 </t>
-  </si>
-  <si>
-    <t>BRETTEN                       </t>
-  </si>
-  <si>
-    <t>MANUELA SEIDEL                                    </t>
-  </si>
-  <si>
-    <t>WASMANNSTR 33C                                    </t>
-  </si>
-  <si>
-    <t>HAMBURG                       </t>
-  </si>
-  <si>
-    <t>SARINA HOLZMANN                                   </t>
-  </si>
-  <si>
-    <t>BAUHOFWEG 14                                      </t>
-  </si>
-  <si>
-    <t>ARGENBUEHL                    </t>
-  </si>
-  <si>
-    <t>HALE DOLUAY                                       </t>
-  </si>
-  <si>
-    <t>HEINRICH-VON-KLEIST-STR. 6                        </t>
-  </si>
-  <si>
-    <t>FULDA                         </t>
-  </si>
-  <si>
-    <t>MARGIT TANNEBERG                                  </t>
-  </si>
-  <si>
-    <t>AUGUST-BEBEL-STR. 45                              </t>
-  </si>
-  <si>
-    <t>ZIEGELHEIM                    </t>
-  </si>
-  <si>
-    <t>SILVIA ABLEITINGER                                </t>
-  </si>
-  <si>
-    <t>HUNDSBACH 11                                      </t>
-  </si>
-  <si>
-    <t>MARTINSBERG                   </t>
-  </si>
-  <si>
-    <t>AUT </t>
-  </si>
-  <si>
-    <t>A-3664    </t>
-  </si>
-  <si>
-    <t>AUT</t>
-  </si>
-  <si>
-    <t>KLAUS DEISCHL                                     </t>
-  </si>
-  <si>
-    <t>CHIEMGAUSTR. 132                                  </t>
-  </si>
-  <si>
-    <t>MUENCHEN                      </t>
-  </si>
-  <si>
-    <t>DORIS MORR                                        </t>
-  </si>
-  <si>
-    <t>KAISERSWERTH STR. 50                              </t>
-  </si>
-  <si>
-    <t>ESSEN                         </t>
-  </si>
-  <si>
-    <t>INGRID STEININGER                                 </t>
-  </si>
-  <si>
-    <t>HAUPTPLATZ 10-11                                  </t>
-  </si>
-  <si>
-    <t>BRUCK AN DER LEITHA           </t>
-  </si>
-  <si>
-    <t>A-2460    </t>
-  </si>
-  <si>
-    <t>SARAH-VANESSA ALBRECHT                            </t>
-  </si>
-  <si>
-    <t>ERNSTSTR. 4                                       </t>
-  </si>
-  <si>
-    <t>BERLIN                        </t>
-  </si>
-  <si>
-    <t>HELMUT MENCKE                                     </t>
-  </si>
-  <si>
-    <t>POTSDAMER STR.12                                  </t>
-  </si>
-  <si>
-    <t>ROTENBURG                     </t>
-  </si>
-  <si>
-    <t>UTE BROCHHAGEN                                    </t>
-  </si>
-  <si>
-    <t>STEMMERING 21 E                                   </t>
-  </si>
-  <si>
-    <t>IRIS WUESTER                                      </t>
-  </si>
-  <si>
-    <t>RATHAUSSTR. 29 A                                  </t>
-  </si>
-  <si>
-    <t>KOENIGSBRUNN                  </t>
-  </si>
-  <si>
-    <t>RECEP SAVAS                                       </t>
-  </si>
-  <si>
-    <t>FRIEDRICH-EBERT-STR. 5                            </t>
-  </si>
-  <si>
-    <t>DONAUWOERTH                   </t>
-  </si>
-  <si>
-    <t>SABINE HANDLER                                    </t>
-  </si>
-  <si>
-    <t>SIEGFRIED-LUDWIGSTRASSE 7/5/5                     </t>
-  </si>
-  <si>
-    <t>MARKT PIESTING                </t>
-  </si>
-  <si>
-    <t>A-2753    </t>
-  </si>
-  <si>
-    <t>EWALD KOEBERL                                     </t>
-  </si>
-  <si>
-    <t>KOHLENBERGSTRASSE 13                              </t>
-  </si>
-  <si>
-    <t>KILB                          </t>
-  </si>
-  <si>
-    <t>A-3233    </t>
-  </si>
-  <si>
-    <t>SIGRID LUTZ                                       </t>
-  </si>
-  <si>
-    <t>ADLERSTR. 35                                      </t>
-  </si>
-  <si>
-    <t>FILDERSTADT                   </t>
-  </si>
-  <si>
-    <t>ERIK VALINE                                       </t>
-  </si>
-  <si>
-    <t>GARTEN STR. 44                                    </t>
-  </si>
-  <si>
-    <t>GUSTERATH                     </t>
-  </si>
-  <si>
-    <t>ANJA FELDMANN                                     </t>
-  </si>
-  <si>
-    <t>RAIN[CKERSTR. 41                                  </t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>ULRIKE RAUSCHER                                   </t>
-  </si>
-  <si>
-    <t>AN DER VALLEROY 20                                </t>
-  </si>
-  <si>
-    <t>OBERG]NZBURG                  </t>
-  </si>
-  <si>
-    <t>TAMARA KRAUSE                                     </t>
-  </si>
-  <si>
-    <t>ERLENSTR. 4                                       </t>
-  </si>
-  <si>
-    <t>ROSSTAL                       </t>
-  </si>
-  <si>
-    <t>SANDRA GANSCH                                     </t>
-  </si>
-  <si>
-    <t>KARL-FRIEDRICH M]LLER                             </t>
-  </si>
-  <si>
-    <t>ZEDERNSTR. 3                                      </t>
-  </si>
-  <si>
-    <t>HEDDESHEIM                    </t>
-  </si>
-  <si>
-    <t>BAERBEL KUNKEL-KIENZLE                            </t>
-  </si>
-  <si>
-    <t>HUEFINGER STR. 13 A                               </t>
-  </si>
-  <si>
-    <t>DONAUESCHINGEN                </t>
-  </si>
-  <si>
-    <t>SUSANNE STOLL                                     </t>
-  </si>
-  <si>
-    <t>SCHLOSSBUEHLWEG 3                                 </t>
-  </si>
-  <si>
-    <t>SCHWAEBISCH GMUEND            </t>
-  </si>
-  <si>
-    <t>SABINE STOCKEL                                    </t>
-  </si>
-  <si>
-    <t>AM FLACHSBACH 14                                  </t>
-  </si>
-  <si>
-    <t>HOLLER                        </t>
-  </si>
-  <si>
-    <t>ALEXANDRA RIEGER                                  </t>
-  </si>
-  <si>
-    <t>GARTENSTR. 21                                     </t>
-  </si>
-  <si>
-    <t>AYSTETTEN                     </t>
-  </si>
-  <si>
-    <t>ADOLF RENKERT                                     </t>
-  </si>
-  <si>
-    <t>SCHLEHENWEG 36                                    </t>
-  </si>
-  <si>
-    <t>OCHTRUP                       </t>
-  </si>
-  <si>
-    <t>DR. OLIVER ADOLPHS                                </t>
-  </si>
-  <si>
-    <t>KIRCHENHOF 1                                      </t>
-  </si>
-  <si>
-    <t>KOELN                         </t>
-  </si>
-  <si>
-    <t>IRA KLOOS-BECKE                                   </t>
-  </si>
-  <si>
-    <t>OBERSTR. 6                                        </t>
-  </si>
-  <si>
-    <t>BRUEHL                        </t>
-  </si>
-  <si>
-    <t>ELKE KITTEL                                       </t>
-  </si>
-  <si>
-    <t>OBERE HAUPTSTRA~E 12/10                           </t>
-  </si>
-  <si>
-    <t>BOEHEIMKIRCHEN                </t>
-  </si>
-  <si>
-    <t>A-3071    </t>
-  </si>
-  <si>
-    <t>RITA MADERBACHER                                  </t>
-  </si>
-  <si>
-    <t>GSCHAID 76A                                       </t>
-  </si>
-  <si>
-    <t>BIRKFELD                      </t>
-  </si>
-  <si>
-    <t>A-8190    </t>
-  </si>
-  <si>
-    <t>UTE HACK                                          </t>
-  </si>
-  <si>
-    <t>AMALIENSTR. 21                                    </t>
-  </si>
-  <si>
-    <t>SELIGENSTADT                  </t>
-  </si>
-  <si>
-    <t>MELANI RODACH                                     </t>
-  </si>
-  <si>
-    <t>GARTENSTR. 19                                     </t>
-  </si>
-  <si>
-    <t>LINGENFELD                    </t>
-  </si>
-  <si>
-    <t>BRITTA VOGEL                                      </t>
-  </si>
-  <si>
-    <t>STADTBERGSTR. 48                                  </t>
-  </si>
-  <si>
-    <t>RHEINE                        </t>
-  </si>
-  <si>
-    <t>ERIKA RUETHER                                     </t>
-  </si>
-  <si>
-    <t>UNTERSTER KAMP 1                                  </t>
-  </si>
-  <si>
-    <t>HAMM                          </t>
-  </si>
-  <si>
-    <t>NICOLE PESENDORFER                                </t>
-  </si>
-  <si>
-    <t>FELDWEG 8                                         </t>
-  </si>
-  <si>
-    <t>GSCHWANDT                     </t>
-  </si>
-  <si>
-    <t>A-4816    </t>
-  </si>
-  <si>
-    <t>WILTRUD BERKA                                     </t>
-  </si>
-  <si>
-    <t>NUSSBAUMWEG 5                                     </t>
-  </si>
-  <si>
-    <t>PIESENDORF                    </t>
-  </si>
-  <si>
-    <t>A-5721    </t>
-  </si>
-  <si>
-    <t>HERMANN UBRICH                                    </t>
-  </si>
-  <si>
-    <t>DEHMELSTR. 15                                     </t>
-  </si>
-  <si>
-    <t>N]RNBERG                      </t>
-  </si>
-  <si>
-    <t>MAG. ELISABETH BAUER                              </t>
-  </si>
-  <si>
-    <t>KASERNENSTRASSE 29                                </t>
-  </si>
-  <si>
-    <t>EISENSTADT                    </t>
-  </si>
-  <si>
-    <t>A-7000    </t>
-  </si>
-  <si>
-    <t>JASMIN BEUSCHEL                                   </t>
-  </si>
-  <si>
-    <t>HAUPTSTR. 24                                      </t>
-  </si>
-  <si>
-    <t>EFRINGEN-KIRCHEN              </t>
-  </si>
-  <si>
-    <t>PETRA PROMITZER                                   </t>
-  </si>
-  <si>
-    <t>MANNING 53                                        </t>
-  </si>
-  <si>
-    <t>HEILIGENKREUZ                 </t>
-  </si>
-  <si>
-    <t>A-8081    </t>
-  </si>
-  <si>
-    <t>CAREN SIMNICA                                     </t>
-  </si>
-  <si>
-    <t>ISARSTR. 3                                        </t>
-  </si>
-  <si>
-    <t>REGENSBURG                    </t>
-  </si>
-  <si>
-    <t>STEFFEN KOBERST[DT                                </t>
-  </si>
-  <si>
-    <t>KURT-SCHUMACHER-STR. 41 A                         </t>
-  </si>
-  <si>
-    <t>RODGAU                        </t>
-  </si>
-  <si>
-    <t>MARLIES APPEL                                     </t>
-  </si>
-  <si>
-    <t>BERTHOLDSIEDLUNG 10                               </t>
-  </si>
-  <si>
-    <t>GROSSRAMING                   </t>
-  </si>
-  <si>
-    <t>A-4463    </t>
-  </si>
-  <si>
-    <t>MARLENE GOTZENS                                   </t>
-  </si>
-  <si>
-    <t>AM STEINBERG 63                                   </t>
-  </si>
-  <si>
-    <t>MOENCHENGLADBACH              </t>
-  </si>
-  <si>
-    <t>MARIANNE SCHERMULY                                </t>
-  </si>
-  <si>
-    <t>HOHESTR. 19                                       </t>
-  </si>
-  <si>
-    <t>MENGERSKIRCHEN                </t>
+    <t xml:space="preserve">O#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jahr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adresse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adresse 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adresse 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adresse 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stadt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSTLEITZAHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D Monat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sponsor ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D mth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st O year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st O mth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAGMAR WENDLAND                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M]NCHENER STR. 148                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BREMEN                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUELA TONON                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELANCHTHONSTR. 4                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRETTEN                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUELA SEIDEL                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASMANNSTR 33C                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAMBURG                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARINA HOLZMANN                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAUHOFWEG 14                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARGENBUEHL                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HALE DOLUAY                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEINRICH-VON-KLEIST-STR. 6                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FULDA                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARGIT TANNEBERG                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGUST-BEBEL-STR. 45                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZIEGELHEIM                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILVIA ABLEITINGER                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUNDSBACH 11                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTINSBERG                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-3664    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLAUS DEISCHL                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHIEMGAUSTR. 132                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUENCHEN                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DORIS MORR                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAISERSWERTH STR. 50                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESSEN                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGRID STEININGER                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAUPTPLATZ 10-11                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRUCK AN DER LEITHA           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-2460    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARAH-VANESSA ALBRECHT                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERNSTSTR. 4                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BERLIN                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HELMUT MENCKE                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POTSDAMER STR.12                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROTENBURG                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTE BROCHHAGEN                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEMMERING 21 E                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRIS WUESTER                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RATHAUSSTR. 29 A                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOENIGSBRUNN                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEP SAVAS                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRIEDRICH-EBERT-STR. 5                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONAUWOERTH                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SABINE HANDLER                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIEGFRIED-LUDWIGSTRASSE 7/5/5                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARKT PIESTING                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-2753    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EWALD KOEBERL                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOHLENBERGSTRASSE 13                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILB                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-3233    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGRID LUTZ                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADLERSTR. 35                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILDERSTADT                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERIK VALINE                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARTEN STR. 44                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUSTERATH                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANJA FELDMANN                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAIN[CKERSTR. 41                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ULRIKE RAUSCHER                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN DER VALLEROY 20                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBERG]NZBURG                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMARA KRAUSE                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERLENSTR. 4                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSSTAL                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANDRA GANSCH                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KARL-FRIEDRICH M]LLER                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZEDERNSTR. 3                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEDDESHEIM                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAERBEL KUNKEL-KIENZLE                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUEFINGER STR. 13 A                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONAUESCHINGEN                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUSANNE STOLL                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHLOSSBUEHLWEG 3                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHWAEBISCH GMUEND            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SABINE STOCKEL                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM FLACHSBACH 14                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOLLER                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEXANDRA RIEGER                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARTENSTR. 21                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYSTETTEN                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADOLF RENKERT                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHLEHENWEG 36                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCHTRUP                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR. OLIVER ADOLPHS                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIRCHENHOF 1                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOELN                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRA KLOOS-BECKE                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBERSTR. 6                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRUEHL                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELKE KITTEL                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBERE HAUPTSTRA~E 12/10                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOEHEIMKIRCHEN                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-3071    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RITA MADERBACHER                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSCHAID 76A                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIRKFELD                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-8190    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTE HACK                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMALIENSTR. 21                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELIGENSTADT                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELANI RODACH                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARTENSTR. 19                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINGENFELD                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRITTA VOGEL                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STADTBERGSTR. 48                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHEINE                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERIKA RUETHER                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNTERSTER KAMP 1                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAMM                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NICOLE PESENDORFER                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FELDWEG 8                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSCHWANDT                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-4816    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILTRUD BERKA                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUSSBAUMWEG 5                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIESENDORF                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-5721    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERMANN UBRICH                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEHMELSTR. 15                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N]RNBERG                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAG. ELISABETH BAUER                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KASERNENSTRASSE 29                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EISENSTADT                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-7000    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JASMIN BEUSCHEL                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAUPTSTR. 24                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFRINGEN-KIRCHEN              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETRA PROMITZER                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANNING 53                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEILIGENKREUZ                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-8081    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAREN SIMNICA                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISARSTR. 3                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGENSBURG                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEFFEN KOBERST[DT                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KURT-SCHUMACHER-STR. 41 A                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODGAU                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARLIES APPEL                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BERTHOLDSIEDLUNG 10                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROSSRAMING                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-4463    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARLENE GOTZENS                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM STEINBERG 63                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOENCHENGLADBACH              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIANNE SCHERMULY                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOHESTR. 19                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENGERSKIRCHEN                </t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
   <fonts count="6">
@@ -587,6 +587,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -609,12 +610,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -776,7 +779,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
